--- a/data/pca/factorExposure/factorExposure_2012-10-05.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-10-05.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.001636801977929143</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>-0.001898897461102985</v>
+      </c>
+      <c r="C2">
+        <v>0.02833389569565735</v>
+      </c>
+      <c r="D2">
+        <v>0.005057200390311332</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>-9.88222022644411e-05</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>0.006926815841102093</v>
+      </c>
+      <c r="C4">
+        <v>0.08274867738141117</v>
+      </c>
+      <c r="D4">
+        <v>0.07206835379848672</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>0.0004349478135162875</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>0.01409610094056412</v>
+      </c>
+      <c r="C6">
+        <v>0.1136953859722761</v>
+      </c>
+      <c r="D6">
+        <v>0.02481319232485632</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>-0.0004387299347629648</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>0.004961146410955989</v>
+      </c>
+      <c r="C7">
+        <v>0.05802643045696472</v>
+      </c>
+      <c r="D7">
+        <v>0.03366445737131111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>-0.0006079519878112522</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>0.005922634740545205</v>
+      </c>
+      <c r="C8">
+        <v>0.03563440018957052</v>
+      </c>
+      <c r="D8">
+        <v>0.03931429179196336</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>-0.002461469185344895</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>0.005075536651612878</v>
+      </c>
+      <c r="C9">
+        <v>0.07017486308051647</v>
+      </c>
+      <c r="D9">
+        <v>0.07682268038704519</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>0.001637327824939997</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>0.005211764176768343</v>
+      </c>
+      <c r="C10">
+        <v>0.0556226869449582</v>
+      </c>
+      <c r="D10">
+        <v>-0.1935024898998987</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>-0.003065825952567159</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>0.005542565510830819</v>
+      </c>
+      <c r="C11">
+        <v>0.07905501482642545</v>
+      </c>
+      <c r="D11">
+        <v>0.06517950319420449</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>-0.00147229676049749</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>0.004066235792792828</v>
+      </c>
+      <c r="C12">
+        <v>0.06434756371411873</v>
+      </c>
+      <c r="D12">
+        <v>0.05180059801605931</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>0.00281350507538764</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>0.008184372168425807</v>
+      </c>
+      <c r="C13">
+        <v>0.06675181335974371</v>
+      </c>
+      <c r="D13">
+        <v>0.06336998651223423</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>-0.001937279281065742</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>0.0006518007145365987</v>
+      </c>
+      <c r="C14">
+        <v>0.04228049483988322</v>
+      </c>
+      <c r="D14">
+        <v>0.01226432174043653</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>-0.0003096565509042706</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>0.005828079598255379</v>
+      </c>
+      <c r="C15">
+        <v>0.04048046015210153</v>
+      </c>
+      <c r="D15">
+        <v>0.02852233256395062</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>-0.0006772621259569419</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>0.004961925958664988</v>
+      </c>
+      <c r="C16">
+        <v>0.06406123249432846</v>
+      </c>
+      <c r="D16">
+        <v>0.05784846167867903</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>0.0005495986104689457</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>0.00877917373396527</v>
+      </c>
+      <c r="C20">
+        <v>0.06315259732298167</v>
+      </c>
+      <c r="D20">
+        <v>0.05149726118902433</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>0.005843099236570683</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>0.009171266732971969</v>
+      </c>
+      <c r="C21">
+        <v>0.01903332560786525</v>
+      </c>
+      <c r="D21">
+        <v>0.04421369473293607</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>-0.02336486322217159</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>-0.007230233067644832</v>
+      </c>
+      <c r="C22">
+        <v>0.08564608211274123</v>
+      </c>
+      <c r="D22">
+        <v>0.1238840192419633</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>-0.0231501645318832</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>-0.007043017618878135</v>
+      </c>
+      <c r="C23">
+        <v>0.08610114909257459</v>
+      </c>
+      <c r="D23">
+        <v>0.1247907854828962</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>-0.002477374902669954</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>0.005512004354647233</v>
+      </c>
+      <c r="C24">
+        <v>0.07566487881016538</v>
+      </c>
+      <c r="D24">
+        <v>0.06845515491103285</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>-0.004269180341365179</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>0.003091545568841533</v>
+      </c>
+      <c r="C25">
+        <v>0.07786820333382413</v>
+      </c>
+      <c r="D25">
+        <v>0.06686674129111066</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>-0.003432545334466457</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>0.003579423195890704</v>
+      </c>
+      <c r="C26">
+        <v>0.03873430706925467</v>
+      </c>
+      <c r="D26">
+        <v>0.02527576454684629</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>-0.007638414049745888</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>-0.001650706555004046</v>
+      </c>
+      <c r="C28">
+        <v>0.1042784577793388</v>
+      </c>
+      <c r="D28">
+        <v>-0.3224873779366677</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>-0.00103018703918173</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>0.002532505252737351</v>
+      </c>
+      <c r="C29">
+        <v>0.04812222170521115</v>
+      </c>
+      <c r="D29">
+        <v>0.01077852624613466</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>-0.005645584748728481</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>0.009477012617182137</v>
+      </c>
+      <c r="C30">
+        <v>0.1408980337312634</v>
+      </c>
+      <c r="D30">
+        <v>0.1092632497740526</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>0.001308161058780575</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>0.006253475006142575</v>
+      </c>
+      <c r="C31">
+        <v>0.04324721964821635</v>
+      </c>
+      <c r="D31">
+        <v>0.03319556867561535</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>-0.001988242903091883</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>0.003361387638634615</v>
+      </c>
+      <c r="C32">
+        <v>0.03924386061900118</v>
+      </c>
+      <c r="D32">
+        <v>0.02405243642134204</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>-0.001490005042635094</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>0.009006298033161553</v>
+      </c>
+      <c r="C33">
+        <v>0.08788772396743068</v>
+      </c>
+      <c r="D33">
+        <v>0.06614736123508606</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>-0.003476134028055396</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>0.004137053665153738</v>
+      </c>
+      <c r="C34">
+        <v>0.05768354504431367</v>
+      </c>
+      <c r="D34">
+        <v>0.05842698245280985</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>0.0008386366022983809</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>0.005191874358818863</v>
+      </c>
+      <c r="C35">
+        <v>0.04028005117775382</v>
+      </c>
+      <c r="D35">
+        <v>0.02090404663130965</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>-0.00540747334668659</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>-0.001612283927109216</v>
+      </c>
+      <c r="C36">
+        <v>0.02414496781044233</v>
+      </c>
+      <c r="D36">
+        <v>0.02665628143856996</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>5.501468186658299e-05</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>0.009254418248630126</v>
+      </c>
+      <c r="C38">
+        <v>0.03761593591680929</v>
+      </c>
+      <c r="D38">
+        <v>0.0157721514466357</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>-0.01325509791750898</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>-0.001554011780968971</v>
+      </c>
+      <c r="C39">
+        <v>0.1130884357028639</v>
+      </c>
+      <c r="D39">
+        <v>0.07781345638357809</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>-0.008011264432844388</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>0.003687296267901785</v>
+      </c>
+      <c r="C40">
+        <v>0.09053304193638897</v>
+      </c>
+      <c r="D40">
+        <v>0.0193046116129584</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>0.0006998240241476812</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>0.007231119554173875</v>
+      </c>
+      <c r="C41">
+        <v>0.0388976295438992</v>
+      </c>
+      <c r="D41">
+        <v>0.03990193766276501</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>-0.002506909323034369</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>0.003874550611826733</v>
+      </c>
+      <c r="C43">
+        <v>0.05291295609301114</v>
+      </c>
+      <c r="D43">
+        <v>0.02789364549843382</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>-0.0139136228344091</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>0.002705354970504409</v>
+      </c>
+      <c r="C44">
+        <v>0.1043406494856165</v>
+      </c>
+      <c r="D44">
+        <v>0.06945778395472536</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>-0.0008921451800008678</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>0.001568215782372036</v>
+      </c>
+      <c r="C46">
+        <v>0.0324314897608054</v>
+      </c>
+      <c r="D46">
+        <v>0.03469455690097824</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>-0.0015329191902014</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>0.002032871002301395</v>
+      </c>
+      <c r="C47">
+        <v>0.03468439793901597</v>
+      </c>
+      <c r="D47">
+        <v>0.02283242690507334</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>0.00308398029878404</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>0.006473485391127964</v>
+      </c>
+      <c r="C48">
+        <v>0.02981253750493564</v>
+      </c>
+      <c r="D48">
+        <v>0.03733780520984168</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>-0.006746715850248217</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>0.01751147273379991</v>
+      </c>
+      <c r="C49">
+        <v>0.1900568221998778</v>
+      </c>
+      <c r="D49">
+        <v>0.006832675124569738</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>-0.0004466260717213144</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>0.0035281129489942</v>
+      </c>
+      <c r="C50">
+        <v>0.04211330934872128</v>
+      </c>
+      <c r="D50">
+        <v>0.03985386190281776</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>0.0001892188181220756</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>0.004881961794188259</v>
+      </c>
+      <c r="C51">
+        <v>0.02589093233562779</v>
+      </c>
+      <c r="D51">
+        <v>0.02228449162332904</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>0.002555954041016991</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>0.02120926300067875</v>
+      </c>
+      <c r="C53">
+        <v>0.1715733344990207</v>
+      </c>
+      <c r="D53">
+        <v>0.02167362280230389</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>0.002050102863136163</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>0.009059156033685074</v>
+      </c>
+      <c r="C54">
+        <v>0.05468245195791983</v>
+      </c>
+      <c r="D54">
+        <v>0.04328151185651631</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>-0.003127518161366132</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>0.009469162066956416</v>
+      </c>
+      <c r="C55">
+        <v>0.1076389789195363</v>
+      </c>
+      <c r="D55">
+        <v>0.04051922765288795</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>0.00487252852760353</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>0.02029751484425858</v>
+      </c>
+      <c r="C56">
+        <v>0.1761689956937564</v>
+      </c>
+      <c r="D56">
+        <v>0.01389043704270538</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>-0.003520539567548104</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>0.01891396857814886</v>
+      </c>
+      <c r="C58">
+        <v>0.1037259782929039</v>
+      </c>
+      <c r="D58">
+        <v>0.07393481676118269</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>-0.007028071320644333</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>0.01014678106403484</v>
+      </c>
+      <c r="C59">
+        <v>0.1691586641061381</v>
+      </c>
+      <c r="D59">
+        <v>-0.3415355278900229</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>-0.001495295529797863</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>0.02499926130790595</v>
+      </c>
+      <c r="C60">
+        <v>0.2260028397871909</v>
+      </c>
+      <c r="D60">
+        <v>0.01869302702457526</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>-0.0120920760514057</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>-0.00190027524043512</v>
+      </c>
+      <c r="C61">
+        <v>0.0943079046299998</v>
+      </c>
+      <c r="D61">
+        <v>0.05817422378407842</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>0.1551285458289586</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>0.1493871555741855</v>
+      </c>
+      <c r="C62">
+        <v>0.09708190216130147</v>
+      </c>
+      <c r="D62">
+        <v>0.02523157992832259</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>-0.001051220841251361</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>0.006300505418462251</v>
+      </c>
+      <c r="C63">
+        <v>0.05279661656561559</v>
+      </c>
+      <c r="D63">
+        <v>0.03442821522170696</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>0.002341423400164779</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>0.01561314236534631</v>
+      </c>
+      <c r="C64">
+        <v>0.1046858092421203</v>
+      </c>
+      <c r="D64">
+        <v>0.05707349488326574</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>0.003203404833537158</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>0.01767675843898727</v>
+      </c>
+      <c r="C65">
+        <v>0.1217633223552536</v>
+      </c>
+      <c r="D65">
+        <v>0.02760620513079595</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>-0.003708171437524733</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>0.01310958943466287</v>
+      </c>
+      <c r="C66">
+        <v>0.1610790175458745</v>
+      </c>
+      <c r="D66">
+        <v>0.1087890113616435</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>0.002528388529434368</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>0.01547766911595335</v>
+      </c>
+      <c r="C67">
+        <v>0.06970302298488847</v>
+      </c>
+      <c r="D67">
+        <v>0.02690746727515208</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>-0.005856266518765513</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>0.001042781236533288</v>
+      </c>
+      <c r="C68">
+        <v>0.08686581555580421</v>
+      </c>
+      <c r="D68">
+        <v>-0.2560057657604806</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>-0.001016552759424479</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>0.006450536242177784</v>
+      </c>
+      <c r="C69">
+        <v>0.05292211844199304</v>
+      </c>
+      <c r="D69">
+        <v>0.03700164160961691</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>0.0007114450037489583</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>0.002108283895757443</v>
+      </c>
+      <c r="C70">
+        <v>0.005955048239471399</v>
+      </c>
+      <c r="D70">
+        <v>0.002138445857448841</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>-0.001278478739705025</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>0.00571228123832189</v>
+      </c>
+      <c r="C71">
+        <v>0.0915509077155988</v>
+      </c>
+      <c r="D71">
+        <v>-0.3002964074527776</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>-0.003582513520256007</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>0.0163280896261855</v>
+      </c>
+      <c r="C72">
+        <v>0.1570954666164411</v>
+      </c>
+      <c r="D72">
+        <v>0.01160702641051449</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>-0.005696186845554702</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>0.0313381793732782</v>
+      </c>
+      <c r="C73">
+        <v>0.2824390036868884</v>
+      </c>
+      <c r="D73">
+        <v>0.05628600929716526</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>-0.005510507374605382</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>0.001932371895748091</v>
+      </c>
+      <c r="C74">
+        <v>0.1015792502100889</v>
+      </c>
+      <c r="D74">
+        <v>0.03756353599503059</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>-0.00352664373636199</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>0.01055859926323707</v>
+      </c>
+      <c r="C75">
+        <v>0.1221574865080706</v>
+      </c>
+      <c r="D75">
+        <v>0.02396582987851935</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>0.008837845693211027</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>0.02228006463410973</v>
+      </c>
+      <c r="C76">
+        <v>0.1471597973382817</v>
+      </c>
+      <c r="D76">
+        <v>0.05860976711314005</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>-0.001065550857782947</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>0.0210912969780802</v>
+      </c>
+      <c r="C77">
+        <v>0.1124710166566913</v>
+      </c>
+      <c r="D77">
+        <v>0.05260013364548508</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>0.001157995515671044</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>0.01474673804458447</v>
+      </c>
+      <c r="C78">
+        <v>0.09631074864312138</v>
+      </c>
+      <c r="D78">
+        <v>0.08085844780661172</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>0.022552969102837</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>0.03825115777354066</v>
+      </c>
+      <c r="C79">
+        <v>0.1562812592299946</v>
+      </c>
+      <c r="D79">
+        <v>0.03318500345562817</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>0.006753504723751163</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>0.009998789794675065</v>
+      </c>
+      <c r="C80">
+        <v>0.03765863492586458</v>
+      </c>
+      <c r="D80">
+        <v>0.03107315257962026</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>0.001237603472092796</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>0.01572912471379613</v>
+      </c>
+      <c r="C81">
+        <v>0.1299526758065841</v>
+      </c>
+      <c r="D81">
+        <v>0.03729334043357041</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>0.005279719076410996</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>0.01986852363421032</v>
+      </c>
+      <c r="C82">
+        <v>0.1389321420983802</v>
+      </c>
+      <c r="D82">
+        <v>0.0373567343562938</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>-0.004853932333114886</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>0.01127743544443985</v>
+      </c>
+      <c r="C83">
+        <v>0.06183203938333739</v>
+      </c>
+      <c r="D83">
+        <v>0.04583995491620868</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>0.01112437166220583</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>0.01211511336027561</v>
+      </c>
+      <c r="C84">
+        <v>0.03778675780251693</v>
+      </c>
+      <c r="D84">
+        <v>-0.002727234340171861</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>0.01438468377239766</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>0.02894414500035455</v>
+      </c>
+      <c r="C85">
+        <v>0.1246690990327003</v>
+      </c>
+      <c r="D85">
+        <v>0.03831680548678247</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>-0.002987597004497431</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>0.00434852630671003</v>
+      </c>
+      <c r="C86">
+        <v>0.05054482936124136</v>
+      </c>
+      <c r="D86">
+        <v>0.02689617226552523</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>-0.002319811386553005</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>0.01088262259076836</v>
+      </c>
+      <c r="C87">
+        <v>0.1271694212866497</v>
+      </c>
+      <c r="D87">
+        <v>0.0781743237091068</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>-0.01070551249210954</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>-0.003003026378841666</v>
+      </c>
+      <c r="C88">
+        <v>0.06334113509395094</v>
+      </c>
+      <c r="D88">
+        <v>0.0266787900220948</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>-0.01186946561824221</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>-0.001921176650234343</v>
+      </c>
+      <c r="C89">
+        <v>0.139567980459448</v>
+      </c>
+      <c r="D89">
+        <v>-0.3177915328226337</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>-0.00374951885072585</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>0.006636783585122217</v>
+      </c>
+      <c r="C90">
+        <v>0.1207798834628602</v>
+      </c>
+      <c r="D90">
+        <v>-0.3138173266095857</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>-0.0004356687883996759</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>0.010281643250197</v>
+      </c>
+      <c r="C91">
+        <v>0.09950199292869837</v>
+      </c>
+      <c r="D91">
+        <v>0.02444850840272</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>-0.008881190979759833</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>0.0004687070308220258</v>
+      </c>
+      <c r="C92">
+        <v>0.1344424404551753</v>
+      </c>
+      <c r="D92">
+        <v>-0.3226729991956728</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>-0.00301357257679239</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>0.004189928137275337</v>
+      </c>
+      <c r="C93">
+        <v>0.105395481222827</v>
+      </c>
+      <c r="D93">
+        <v>-0.2984336895067268</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>0.003500530936728746</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>0.02146170986662517</v>
+      </c>
+      <c r="C94">
+        <v>0.1427253770824632</v>
+      </c>
+      <c r="D94">
+        <v>0.05235402090608479</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>-0.001944961029537936</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>0.01637661501023871</v>
+      </c>
+      <c r="C95">
+        <v>0.121532833385373</v>
+      </c>
+      <c r="D95">
+        <v>0.06584257105329053</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>0.006757964554412314</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>0.03669003489540303</v>
+      </c>
+      <c r="C97">
+        <v>0.2259914703695138</v>
+      </c>
+      <c r="D97">
+        <v>0.0009635869559756306</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>0.00411038408230441</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>0.03771125458202603</v>
+      </c>
+      <c r="C98">
+        <v>0.257601323538818</v>
+      </c>
+      <c r="D98">
+        <v>0.03487565012938283</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>0.9860120886840502</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>0.9813846195726025</v>
+      </c>
+      <c r="C99">
+        <v>-0.1189006660781419</v>
+      </c>
+      <c r="D99">
+        <v>-0.02406757621219216</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>-0.0009590432703698283</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>0.002575221281038327</v>
+      </c>
+      <c r="C101">
+        <v>0.04824841415644032</v>
+      </c>
+      <c r="D101">
+        <v>0.01117751993501482</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
